--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86CF55A3-7746-4BBD-A2A7-5B4E80D8888C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600E6069-E5BD-4014-B864-6AB5438F2134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DB9409B2-1F41-4B91-A412-ED451A386F46}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
